--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnkushMyadam\Videos\GPO Roster Avendra_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubAnkush\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D321B-C823-4C21-824D-9AFA9288A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205660DA-674D-4C52-8EDC-5251FFD20816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -268,24 +268,6 @@
   </si>
   <si>
     <t>CcEmail_GPOAvendra</t>
-  </si>
-  <si>
-    <t>Avendra_Credential</t>
-  </si>
-  <si>
-    <t>Avendra_Credentials</t>
-  </si>
-  <si>
-    <t>Avendra_URL</t>
-  </si>
-  <si>
-    <t>https://suppliers.aramark-avendragroup.com/</t>
-  </si>
-  <si>
-    <t>https://clp.aramark-avendragroup.com/customers</t>
-  </si>
-  <si>
-    <t>Avendra_URL_Customer</t>
   </si>
   <si>
     <t>GPO Roster Avendra</t>
@@ -298,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -321,12 +303,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -352,11 +328,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,10 +343,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -737,7 +710,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -758,7 +731,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -1766,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1951,137 +1924,116 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>85</v>
+      <c r="A20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>81</v>
+      <c r="A21" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>45</v>
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32">
-        <v>400</v>
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3028,15 +2980,8 @@
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
     <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" xr:uid="{AE86A3E3-E403-44D1-AB29-1C815DC0B4FD}"/>
-    <hyperlink ref="B20" r:id="rId2" xr:uid="{A06E94C5-D90B-4A63-A0F2-26F603E9B6E9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3045,7 +2990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubAnkush\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSai\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205660DA-674D-4C52-8EDC-5251FFD20816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9053C61-E1C6-4FE0-B6F8-6E78486AF245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -274,6 +274,27 @@
   </si>
   <si>
     <t>GPO Roster Avendra Performer</t>
+  </si>
+  <si>
+    <t>Tcode_VA05</t>
+  </si>
+  <si>
+    <t>VA05</t>
+  </si>
+  <si>
+    <t>VA05_PartnerFunction_SoldTo</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>VA05_PartnerFunction_ShipTo</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Prod</t>
   </si>
 </sst>
 </file>
@@ -660,15 +681,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -716,17 +737,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1741,16 +1764,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="72.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1787,7 +1810,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1912,7 +1935,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2031,9 +2054,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2990,17 +3034,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="4" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="4" width="72.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSai\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9053C61-E1C6-4FE0-B6F8-6E78486AF245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C0149F-1E12-4896-98E8-A3514C640E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3034,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSai\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C0149F-1E12-4896-98E8-A3514C640E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F580F108-81ED-455D-9059-ED58C8D2C3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Prod</t>
+    <t>UAT</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3034,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSai\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F580F108-81ED-455D-9059-ED58C8D2C3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8F19F-ED86-49D3-A4DD-E55964DDD04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>UAT</t>
+    <t>Prod</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3034,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSai\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8F19F-ED86-49D3-A4DD-E55964DDD04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E86D1-661A-4D44-90F1-9EB92CA97BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -294,7 +294,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Prod</t>
+    <t>Dev</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3035,7 +3035,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3090,6 +3090,9 @@
       <c r="B2" t="s">
         <v>77</v>
       </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
@@ -3101,6 +3104,9 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
@@ -3109,6 +3115,9 @@
       <c r="B4" t="s">
         <v>67</v>
       </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
@@ -3117,6 +3126,9 @@
       <c r="B5" t="s">
         <v>68</v>
       </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
@@ -3125,6 +3137,9 @@
       <c r="B6" t="s">
         <v>78</v>
       </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
@@ -3133,6 +3148,9 @@
       <c r="B7" t="s">
         <v>79</v>
       </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
@@ -3141,6 +3159,9 @@
       <c r="B8" t="s">
         <v>80</v>
       </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
@@ -3149,6 +3170,9 @@
       <c r="B9" t="s">
         <v>73</v>
       </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
@@ -3156,6 +3180,9 @@
       </c>
       <c r="B10" t="s">
         <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSai\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E86D1-661A-4D44-90F1-9EB92CA97BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6272E4A-D36B-4F64-A120-FFB6A4E9D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,7 +294,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Dev</t>
+    <t>UAT</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3035,7 +3035,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSai\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6272E4A-D36B-4F64-A120-FFB6A4E9D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1BFB7A-ADB4-43A3-97CC-2C934F28182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>UAT</t>
+    <t>Prod</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3034,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSai\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubAnkush\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1BFB7A-ADB4-43A3-97CC-2C934F28182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B73FC48-E1AC-44D4-AC98-6286D57926A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -234,9 +234,6 @@
     <t>MasterFileGoogleRuns</t>
   </si>
   <si>
-    <t>ERP</t>
-  </si>
-  <si>
     <t>SuccessEmail</t>
   </si>
   <si>
@@ -294,7 +291,10 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Prod</t>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>STG</t>
   </si>
 </sst>
 </file>
@@ -680,16 +680,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -731,30 +731,30 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -1764,16 +1764,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="72.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1810,7 +1810,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1935,7 +1935,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -2056,26 +2056,26 @@
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
         <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
         <v>85</v>
-      </c>
-      <c r="B36" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
         <v>87</v>
-      </c>
-      <c r="B37" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3034,17 +3034,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="4" width="72.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="4" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3088,13 +3088,10 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -3104,9 +3101,6 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
@@ -3115,9 +3109,6 @@
       <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
@@ -3126,63 +3117,45 @@
       <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubAnkush\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B73FC48-E1AC-44D4-AC98-6286D57926A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9230FB8A-8196-4EE8-91E4-ACD4C1AFD983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -291,10 +291,10 @@
     <t>SH</t>
   </si>
   <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>STG</t>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>Prod</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -742,7 +742,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
@@ -1765,7 +1765,7 @@
   <dimension ref="A1:Z983"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2002,7 +2002,7 @@
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -3034,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubAnkush\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSai\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9230FB8A-8196-4EE8-91E4-ACD4C1AFD983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF873A1-42FF-4A97-BA50-09067394539D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -294,7 +294,7 @@
     <t>ERP</t>
   </si>
   <si>
-    <t>Prod</t>
+    <t>Dev</t>
   </si>
 </sst>
 </file>
@@ -681,15 +681,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -737,7 +737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -749,7 +749,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1768,12 +1768,12 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="72.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1810,7 +1810,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1935,7 +1935,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3035,16 +3035,16 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="4" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="4" width="72.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3090,6 +3090,9 @@
       <c r="B2" t="s">
         <v>76</v>
       </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
       <c r="D2" t="s">
         <v>73</v>
       </c>
@@ -3101,6 +3104,9 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
@@ -3109,6 +3115,9 @@
       <c r="B4" t="s">
         <v>67</v>
       </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
@@ -3117,6 +3126,9 @@
       <c r="B5" t="s">
         <v>68</v>
       </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
@@ -3125,6 +3137,9 @@
       <c r="B6" t="s">
         <v>77</v>
       </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
@@ -3133,6 +3148,9 @@
       <c r="B7" t="s">
         <v>78</v>
       </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
@@ -3141,6 +3159,9 @@
       <c r="B8" t="s">
         <v>79</v>
       </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
@@ -3149,6 +3170,9 @@
       <c r="B9" t="s">
         <v>72</v>
       </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
@@ -3156,6 +3180,9 @@
       </c>
       <c r="B10" t="s">
         <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/GPO Roster Avendra_Performer/Data/Config.xlsx
+++ b/GPO Roster Avendra_Performer/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSai\GPO-Roster-Avendra\GPO Roster Avendra_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF873A1-42FF-4A97-BA50-09067394539D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D55298F-1164-4325-94A4-B06208E63715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>ERP</t>
   </si>
   <si>
-    <t>Dev</t>
+    <t>Prod</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3034,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
